--- a/2-hard-in-excel-easy-in-python/data-visualization/exercise/hard-excel-easy-python-data-viz-exercise.xlsx
+++ b/2-hard-in-excel-easy-in-python/data-visualization/exercise/hard-excel-easy-python-data-viz-exercise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\python-powered-excel\2-hard-in-excel-easy-in-python\data-visualization\exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D03E7F-E40F-4AA3-A9B9-D64915EA988F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E8DFF4-B48D-4991-8F23-35931E211E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,30 +99,37 @@
 </metadata>
 </file>
 
-<file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
-<pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
-  <pythonScript>
-    <code># Name the DataFrame sales
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{00000000-0000-0000-0000-000000000000}">
+    <initialization>
+      <code/>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code># Name the DataFrame sales
 ___ = xl(%P2%, headers=True)
 # Print first 5 rows 
 ___.___</code>
-  </pythonScript>
-  <pythonScript>
-    <code># Pairplot of the sales DataFrame
+    </pythonScript>
+    <pythonScript>
+      <code># Pairplot of the sales DataFrame
 sns.____(data=____)</code>
-  </pythonScript>
-  <pythonScript>
-    <code># Violinplot with season on x-axis and sales on y
+    </pythonScript>
+    <pythonScript>
+      <code># Violinplot with season on x-axis and sales on y
 sns.___(x=___, ____=____, data=sales)</code>
-  </pythonScript>
-  <pythonScript>
-    <code>sns.stripplot(x='category', y='customer_rating', data=sales, jitter=True)</code>
-  </pythonScript>
-  <pythonScript>
-    <code>g = sns.FacetGrid(sales, col='region', hue='category')
+    </pythonScript>
+    <pythonScript>
+      <code>sns.stripplot(x='category', y='customer_rating', data=sales, jitter=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>g = sns.FacetGrid(sales, col='region', hue='category')
 g = g.map(sns.scatterplot, 'sales', 'customer_rating')</code>
-  </pythonScript>
-</pythonScripts>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -922,16 +929,16 @@
       <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" customWidth="1"/>
-    <col min="4" max="4" width="16.53125" customWidth="1"/>
-    <col min="5" max="5" width="9.73046875" customWidth="1"/>
-    <col min="9" max="9" width="14.46484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.578125" customWidth="1"/>
+    <col min="2" max="2" width="9.7890625" customWidth="1"/>
+    <col min="4" max="4" width="16.5234375" customWidth="1"/>
+    <col min="5" max="5" width="9.734375" customWidth="1"/>
+    <col min="9" max="9" width="14.47265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -954,7 +961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -977,7 +984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1007,7 +1014,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1030,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1053,7 +1060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1099,7 +1106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1145,7 +1152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1168,7 +1175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1191,7 +1198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1244,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1336,7 +1343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1359,7 +1366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1382,7 +1389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1405,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1451,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1474,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1527,7 +1534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1550,7 +1557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1573,7 +1580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1596,7 +1603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1619,7 +1626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1642,7 +1649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1665,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1688,7 +1695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1711,7 +1718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1741,7 +1748,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1764,7 +1771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1787,7 +1794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1810,7 +1817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1833,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1879,7 +1886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1955,7 +1962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2024,7 +2031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2047,7 +2054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2070,7 +2077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2093,7 +2100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2139,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2162,7 +2169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2185,7 +2192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2208,7 +2215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2254,7 +2261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2277,7 +2284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2300,7 +2307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2323,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2346,7 +2353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2369,7 +2376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2392,7 +2399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2415,7 +2422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2438,7 +2445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2461,7 +2468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2484,7 +2491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2507,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2530,7 +2537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2553,7 +2560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2576,7 +2583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2599,7 +2606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2622,7 +2629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2645,7 +2652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2668,7 +2675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2691,7 +2698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2714,7 +2721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2737,7 +2744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2760,7 +2767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2783,7 +2790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2806,7 +2813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2829,7 +2836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2852,7 +2859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2875,7 +2882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2898,7 +2905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2921,7 +2928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2944,7 +2951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2967,7 +2974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2990,7 +2997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3013,7 +3020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3036,7 +3043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3059,7 +3066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3082,7 +3089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3105,7 +3112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3128,7 +3135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3151,7 +3158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3174,7 +3181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3197,7 +3204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3220,7 +3227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3243,7 +3250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3266,7 +3273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3289,7 +3296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3312,7 +3319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3335,7 +3342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3358,7 +3365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3381,7 +3388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3404,7 +3411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3427,7 +3434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3450,7 +3457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3473,7 +3480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3496,7 +3503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3519,7 +3526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3542,7 +3549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3565,7 +3572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3588,7 +3595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3611,7 +3618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3634,7 +3641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3657,7 +3664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3680,7 +3687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3703,7 +3710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3726,7 +3733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3749,7 +3756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3772,7 +3779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3795,7 +3802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3818,7 +3825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3841,7 +3848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3864,7 +3871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3887,7 +3894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3910,7 +3917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3933,7 +3940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3956,7 +3963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3979,7 +3986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4002,7 +4009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4025,7 +4032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4048,7 +4055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4071,7 +4078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4094,7 +4101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4117,7 +4124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4140,7 +4147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4163,7 +4170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4186,7 +4193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4209,7 +4216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4232,7 +4239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4255,7 +4262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4278,7 +4285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4301,7 +4308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4324,7 +4331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4347,7 +4354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4370,7 +4377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4393,7 +4400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4416,7 +4423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4439,7 +4446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4462,7 +4469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4485,7 +4492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4508,7 +4515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4531,7 +4538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4554,7 +4561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4577,7 +4584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4600,7 +4607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4623,7 +4630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4646,7 +4653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4669,7 +4676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4692,7 +4699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4715,7 +4722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4738,7 +4745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4761,7 +4768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4784,7 +4791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4807,7 +4814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4830,7 +4837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4853,7 +4860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4876,7 +4883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4899,7 +4906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4922,7 +4929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4945,7 +4952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4968,7 +4975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4991,7 +4998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5014,7 +5021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5037,7 +5044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5060,7 +5067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5083,7 +5090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5106,7 +5113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5129,7 +5136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5152,7 +5159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5175,7 +5182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5198,7 +5205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5221,7 +5228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5244,7 +5251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5267,7 +5274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5290,7 +5297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5313,7 +5320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5336,7 +5343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5359,7 +5366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5382,7 +5389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5405,7 +5412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5428,7 +5435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5451,7 +5458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5474,7 +5481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5497,7 +5504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5520,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5543,7 +5550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5566,7 +5573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5589,7 +5596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5612,7 +5619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5635,7 +5642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5658,7 +5665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5681,7 +5688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5704,7 +5711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5727,7 +5734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5750,7 +5757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5773,7 +5780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5796,7 +5803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5819,7 +5826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5842,7 +5849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5865,7 +5872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5888,7 +5895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5911,7 +5918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5934,7 +5941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5957,7 +5964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5980,7 +5987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6003,7 +6010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6026,7 +6033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6049,7 +6056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6072,7 +6079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6095,7 +6102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6118,7 +6125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6141,7 +6148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6187,7 +6194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6210,7 +6217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6233,7 +6240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6256,7 +6263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6279,7 +6286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6302,7 +6309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6325,7 +6332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6348,7 +6355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6371,7 +6378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6394,7 +6401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6417,7 +6424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6440,7 +6447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6463,7 +6470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6486,7 +6493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6509,7 +6516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6532,7 +6539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6555,7 +6562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6578,7 +6585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6601,7 +6608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6624,7 +6631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6647,7 +6654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6670,7 +6677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6693,7 +6700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6716,7 +6723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6739,7 +6746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6762,7 +6769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6785,7 +6792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6808,7 +6815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6831,7 +6838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6854,7 +6861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6877,7 +6884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6900,7 +6907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6923,7 +6930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6946,7 +6953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6969,7 +6976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6992,7 +6999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>262</v>
       </c>
@@ -7015,7 +7022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>263</v>
       </c>
@@ -7038,7 +7045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>264</v>
       </c>
@@ -7061,7 +7068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>265</v>
       </c>
@@ -7084,7 +7091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>266</v>
       </c>
@@ -7107,7 +7114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>267</v>
       </c>
@@ -7130,7 +7137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>268</v>
       </c>
@@ -7153,7 +7160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>269</v>
       </c>
@@ -7176,7 +7183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>270</v>
       </c>
@@ -7199,7 +7206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>271</v>
       </c>
@@ -7222,7 +7229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>272</v>
       </c>
@@ -7245,7 +7252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>273</v>
       </c>
@@ -7268,7 +7275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>274</v>
       </c>
@@ -7291,7 +7298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>275</v>
       </c>
@@ -7314,7 +7321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>276</v>
       </c>
@@ -7337,7 +7344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>277</v>
       </c>
@@ -7360,7 +7367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>278</v>
       </c>
@@ -7383,7 +7390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>279</v>
       </c>
@@ -7406,7 +7413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>280</v>
       </c>
@@ -7429,7 +7436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>281</v>
       </c>
@@ -7452,7 +7459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>282</v>
       </c>
@@ -7475,7 +7482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>283</v>
       </c>
@@ -7498,7 +7505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>284</v>
       </c>
@@ -7521,7 +7528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>285</v>
       </c>
@@ -7544,7 +7551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>286</v>
       </c>
@@ -7567,7 +7574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>287</v>
       </c>
@@ -7590,7 +7597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>288</v>
       </c>
@@ -7613,7 +7620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>289</v>
       </c>
@@ -7636,7 +7643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>290</v>
       </c>
@@ -7659,7 +7666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>291</v>
       </c>
@@ -7682,7 +7689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>292</v>
       </c>
@@ -7705,7 +7712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>293</v>
       </c>
@@ -7728,7 +7735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>294</v>
       </c>
@@ -7751,7 +7758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>295</v>
       </c>
@@ -7774,7 +7781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>296</v>
       </c>
@@ -7797,7 +7804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>297</v>
       </c>
@@ -7820,7 +7827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>298</v>
       </c>
@@ -7843,7 +7850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>299</v>
       </c>
@@ -7866,7 +7873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>300</v>
       </c>
@@ -7889,7 +7896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
         <v>301</v>
       </c>
@@ -7912,7 +7919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
         <v>302</v>
       </c>
@@ -7935,7 +7942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
         <v>303</v>
       </c>
@@ -7958,7 +7965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
         <v>304</v>
       </c>
@@ -7981,7 +7988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A306">
         <v>305</v>
       </c>
@@ -8004,7 +8011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A307">
         <v>306</v>
       </c>
@@ -8027,7 +8034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
         <v>307</v>
       </c>
@@ -8050,7 +8057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A309">
         <v>308</v>
       </c>
@@ -8073,7 +8080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A310">
         <v>309</v>
       </c>
@@ -8096,7 +8103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A311">
         <v>310</v>
       </c>
@@ -8119,7 +8126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A312">
         <v>311</v>
       </c>
@@ -8142,7 +8149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A313">
         <v>312</v>
       </c>
@@ -8165,7 +8172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A314">
         <v>313</v>
       </c>
@@ -8188,7 +8195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A315">
         <v>314</v>
       </c>
@@ -8211,7 +8218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A316">
         <v>315</v>
       </c>
@@ -8234,7 +8241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A317">
         <v>316</v>
       </c>
@@ -8257,7 +8264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A318">
         <v>317</v>
       </c>
@@ -8280,7 +8287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A319">
         <v>318</v>
       </c>
@@ -8303,7 +8310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A320">
         <v>319</v>
       </c>
@@ -8326,7 +8333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A321">
         <v>320</v>
       </c>
@@ -8349,7 +8356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A322">
         <v>321</v>
       </c>
@@ -8372,7 +8379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A323">
         <v>322</v>
       </c>
@@ -8395,7 +8402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
         <v>323</v>
       </c>
@@ -8418,7 +8425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A325">
         <v>324</v>
       </c>
@@ -8441,7 +8448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A326">
         <v>325</v>
       </c>
@@ -8464,7 +8471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A327">
         <v>326</v>
       </c>
@@ -8487,7 +8494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A328">
         <v>327</v>
       </c>
@@ -8510,7 +8517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A329">
         <v>328</v>
       </c>
@@ -8533,7 +8540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A330">
         <v>329</v>
       </c>
@@ -8556,7 +8563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A331">
         <v>330</v>
       </c>
@@ -8579,7 +8586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A332">
         <v>331</v>
       </c>
@@ -8602,7 +8609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A333">
         <v>332</v>
       </c>
@@ -8625,7 +8632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A334">
         <v>333</v>
       </c>
@@ -8648,7 +8655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A335">
         <v>334</v>
       </c>
@@ -8671,7 +8678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A336">
         <v>335</v>
       </c>
@@ -8694,7 +8701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A337">
         <v>336</v>
       </c>
@@ -8717,7 +8724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A338">
         <v>337</v>
       </c>
@@ -8740,7 +8747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A339">
         <v>338</v>
       </c>
@@ -8763,7 +8770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A340">
         <v>339</v>
       </c>
@@ -8786,7 +8793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
         <v>340</v>
       </c>
@@ -8809,7 +8816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A342">
         <v>341</v>
       </c>
@@ -8832,7 +8839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A343">
         <v>342</v>
       </c>
@@ -8855,7 +8862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A344">
         <v>343</v>
       </c>
@@ -8878,7 +8885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A345">
         <v>344</v>
       </c>
@@ -8901,7 +8908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A346">
         <v>345</v>
       </c>
@@ -8924,7 +8931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A347">
         <v>346</v>
       </c>
@@ -8947,7 +8954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A348">
         <v>347</v>
       </c>
@@ -8970,7 +8977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A349">
         <v>348</v>
       </c>
@@ -8993,7 +9000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A350">
         <v>349</v>
       </c>
@@ -9016,7 +9023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A351">
         <v>350</v>
       </c>
@@ -9039,7 +9046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A352">
         <v>351</v>
       </c>
@@ -9062,7 +9069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A353">
         <v>352</v>
       </c>
@@ -9085,7 +9092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A354">
         <v>353</v>
       </c>
@@ -9108,7 +9115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A355">
         <v>354</v>
       </c>
@@ -9131,7 +9138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A356">
         <v>355</v>
       </c>
@@ -9154,7 +9161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A357">
         <v>356</v>
       </c>
@@ -9177,7 +9184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A358">
         <v>357</v>
       </c>
@@ -9200,7 +9207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
         <v>358</v>
       </c>
@@ -9223,7 +9230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
         <v>359</v>
       </c>
@@ -9246,7 +9253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
         <v>360</v>
       </c>
@@ -9269,7 +9276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
         <v>361</v>
       </c>
@@ -9292,7 +9299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
         <v>362</v>
       </c>
@@ -9315,7 +9322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
         <v>363</v>
       </c>
@@ -9338,7 +9345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
         <v>364</v>
       </c>
@@ -9361,7 +9368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
         <v>365</v>
       </c>
@@ -9384,7 +9391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
         <v>366</v>
       </c>
@@ -9407,7 +9414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
         <v>367</v>
       </c>
@@ -9430,7 +9437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
         <v>368</v>
       </c>
@@ -9453,7 +9460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
         <v>369</v>
       </c>
@@ -9476,7 +9483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
         <v>370</v>
       </c>
@@ -9499,7 +9506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
         <v>371</v>
       </c>
@@ -9522,7 +9529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
         <v>372</v>
       </c>
@@ -9545,7 +9552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
         <v>373</v>
       </c>
@@ -9568,7 +9575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
         <v>374</v>
       </c>
@@ -9591,7 +9598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
         <v>375</v>
       </c>
@@ -9614,7 +9621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
         <v>376</v>
       </c>
@@ -9637,7 +9644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
         <v>377</v>
       </c>
@@ -9660,7 +9667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
         <v>378</v>
       </c>
@@ -9683,7 +9690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A380">
         <v>379</v>
       </c>
@@ -9706,7 +9713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A381">
         <v>380</v>
       </c>
@@ -9729,7 +9736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A382">
         <v>381</v>
       </c>
@@ -9752,7 +9759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
         <v>382</v>
       </c>
@@ -9775,7 +9782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A384">
         <v>383</v>
       </c>
@@ -9798,7 +9805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A385">
         <v>384</v>
       </c>
@@ -9821,7 +9828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A386">
         <v>385</v>
       </c>
@@ -9844,7 +9851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A387">
         <v>386</v>
       </c>
@@ -9867,7 +9874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A388">
         <v>387</v>
       </c>
@@ -9890,7 +9897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
         <v>388</v>
       </c>
@@ -9913,7 +9920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A390">
         <v>389</v>
       </c>
@@ -9936,7 +9943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A391">
         <v>390</v>
       </c>
@@ -9959,7 +9966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A392">
         <v>391</v>
       </c>
@@ -9982,7 +9989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A393">
         <v>392</v>
       </c>
@@ -10005,7 +10012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A394">
         <v>393</v>
       </c>
@@ -10028,7 +10035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A395">
         <v>394</v>
       </c>
@@ -10051,7 +10058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A396">
         <v>395</v>
       </c>
@@ -10074,7 +10081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A397">
         <v>396</v>
       </c>
@@ -10097,7 +10104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A398">
         <v>397</v>
       </c>
@@ -10120,7 +10127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A399">
         <v>398</v>
       </c>
@@ -10143,7 +10150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A400">
         <v>399</v>
       </c>
@@ -10166,7 +10173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A401">
         <v>400</v>
       </c>
@@ -10189,7 +10196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A402">
         <v>401</v>
       </c>
@@ -10212,7 +10219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A403">
         <v>402</v>
       </c>
@@ -10235,7 +10242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A404">
         <v>403</v>
       </c>
@@ -10258,7 +10265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A405">
         <v>404</v>
       </c>
@@ -10281,7 +10288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A406">
         <v>405</v>
       </c>
@@ -10304,7 +10311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A407">
         <v>406</v>
       </c>
@@ -10327,7 +10334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A408">
         <v>407</v>
       </c>
@@ -10350,7 +10357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A409">
         <v>408</v>
       </c>
@@ -10373,7 +10380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A410">
         <v>409</v>
       </c>
@@ -10396,7 +10403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A411">
         <v>410</v>
       </c>
@@ -10419,7 +10426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A412">
         <v>411</v>
       </c>
@@ -10442,7 +10449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A413">
         <v>412</v>
       </c>
@@ -10465,7 +10472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A414">
         <v>413</v>
       </c>
@@ -10488,7 +10495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A415">
         <v>414</v>
       </c>
@@ -10511,7 +10518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A416">
         <v>415</v>
       </c>
@@ -10534,7 +10541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A417">
         <v>416</v>
       </c>
@@ -10557,7 +10564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A418">
         <v>417</v>
       </c>
@@ -10580,7 +10587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A419">
         <v>418</v>
       </c>
@@ -10603,7 +10610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A420">
         <v>419</v>
       </c>
@@ -10626,7 +10633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A421">
         <v>420</v>
       </c>
@@ -10649,7 +10656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A422">
         <v>421</v>
       </c>
@@ -10672,7 +10679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A423">
         <v>422</v>
       </c>
@@ -10695,7 +10702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A424">
         <v>423</v>
       </c>
@@ -10718,7 +10725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A425">
         <v>424</v>
       </c>
@@ -10741,7 +10748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A426">
         <v>425</v>
       </c>
@@ -10764,7 +10771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A427">
         <v>426</v>
       </c>
@@ -10787,7 +10794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A428">
         <v>427</v>
       </c>
@@ -10810,7 +10817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A429">
         <v>428</v>
       </c>
@@ -10833,7 +10840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A430">
         <v>429</v>
       </c>
@@ -10856,7 +10863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A431">
         <v>430</v>
       </c>
@@ -10879,7 +10886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A432">
         <v>431</v>
       </c>
@@ -10902,7 +10909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A433">
         <v>432</v>
       </c>
@@ -10925,7 +10932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A434">
         <v>433</v>
       </c>
@@ -10948,7 +10955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A435">
         <v>434</v>
       </c>
@@ -10971,7 +10978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A436">
         <v>435</v>
       </c>
@@ -10994,7 +11001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A437">
         <v>436</v>
       </c>
@@ -11017,7 +11024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A438">
         <v>437</v>
       </c>
@@ -11040,7 +11047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A439">
         <v>438</v>
       </c>
@@ -11063,7 +11070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A440">
         <v>439</v>
       </c>
@@ -11086,7 +11093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A441">
         <v>440</v>
       </c>
@@ -11109,7 +11116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A442">
         <v>441</v>
       </c>
@@ -11132,7 +11139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A443">
         <v>442</v>
       </c>
@@ -11155,7 +11162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A444">
         <v>443</v>
       </c>
@@ -11178,7 +11185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A445">
         <v>444</v>
       </c>
@@ -11201,7 +11208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A446">
         <v>445</v>
       </c>
@@ -11224,7 +11231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A447">
         <v>446</v>
       </c>
@@ -11247,7 +11254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A448">
         <v>447</v>
       </c>
@@ -11270,7 +11277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A449">
         <v>448</v>
       </c>
@@ -11293,7 +11300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A450">
         <v>449</v>
       </c>
@@ -11316,7 +11323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A451">
         <v>450</v>
       </c>
@@ -11339,7 +11346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A452">
         <v>451</v>
       </c>
@@ -11362,7 +11369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A453">
         <v>452</v>
       </c>
@@ -11385,7 +11392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A454">
         <v>453</v>
       </c>
@@ -11408,7 +11415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A455">
         <v>454</v>
       </c>
@@ -11431,7 +11438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A456">
         <v>455</v>
       </c>
@@ -11454,7 +11461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A457">
         <v>456</v>
       </c>
@@ -11477,7 +11484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A458">
         <v>457</v>
       </c>
@@ -11500,7 +11507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A459">
         <v>458</v>
       </c>
@@ -11523,7 +11530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A460">
         <v>459</v>
       </c>
@@ -11546,7 +11553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A461">
         <v>460</v>
       </c>
@@ -11569,7 +11576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A462">
         <v>461</v>
       </c>
@@ -11592,7 +11599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A463">
         <v>462</v>
       </c>
@@ -11615,7 +11622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A464">
         <v>463</v>
       </c>
@@ -11638,7 +11645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A465">
         <v>464</v>
       </c>
@@ -11661,7 +11668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A466">
         <v>465</v>
       </c>
@@ -11684,7 +11691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A467">
         <v>466</v>
       </c>
@@ -11707,7 +11714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A468">
         <v>467</v>
       </c>
@@ -11730,7 +11737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A469">
         <v>468</v>
       </c>
@@ -11753,7 +11760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A470">
         <v>469</v>
       </c>
@@ -11776,7 +11783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A471">
         <v>470</v>
       </c>
@@ -11799,7 +11806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A472">
         <v>471</v>
       </c>
@@ -11822,7 +11829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A473">
         <v>472</v>
       </c>
@@ -11845,7 +11852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A474">
         <v>473</v>
       </c>
@@ -11868,7 +11875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A475">
         <v>474</v>
       </c>
@@ -11891,7 +11898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A476">
         <v>475</v>
       </c>
@@ -11914,7 +11921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A477">
         <v>476</v>
       </c>
@@ -11937,7 +11944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A478">
         <v>477</v>
       </c>
@@ -11960,7 +11967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A479">
         <v>478</v>
       </c>
@@ -11983,7 +11990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A480">
         <v>479</v>
       </c>
@@ -12006,7 +12013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A481">
         <v>480</v>
       </c>
@@ -12029,7 +12036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A482">
         <v>481</v>
       </c>
@@ -12052,7 +12059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A483">
         <v>482</v>
       </c>
@@ -12075,7 +12082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A484">
         <v>483</v>
       </c>
@@ -12098,7 +12105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A485">
         <v>484</v>
       </c>
@@ -12121,7 +12128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A486">
         <v>485</v>
       </c>
@@ -12144,7 +12151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A487">
         <v>486</v>
       </c>
@@ -12167,7 +12174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A488">
         <v>487</v>
       </c>
@@ -12190,7 +12197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A489">
         <v>488</v>
       </c>
@@ -12213,7 +12220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A490">
         <v>489</v>
       </c>
@@ -12236,7 +12243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A491">
         <v>490</v>
       </c>
@@ -12259,7 +12266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A492">
         <v>491</v>
       </c>
@@ -12282,7 +12289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A493">
         <v>492</v>
       </c>
@@ -12305,7 +12312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A494">
         <v>493</v>
       </c>
@@ -12328,7 +12335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A495">
         <v>494</v>
       </c>
@@ -12351,7 +12358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A496">
         <v>495</v>
       </c>
@@ -12374,7 +12381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A497">
         <v>496</v>
       </c>
@@ -12397,7 +12404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A498">
         <v>497</v>
       </c>
@@ -12420,7 +12427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A499">
         <v>498</v>
       </c>
@@ -12443,7 +12450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A500">
         <v>499</v>
       </c>
@@ -12466,7 +12473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A501">
         <v>500</v>
       </c>
@@ -12489,7 +12496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A502">
         <v>501</v>
       </c>
@@ -12512,7 +12519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A503">
         <v>502</v>
       </c>
@@ -12535,7 +12542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A504">
         <v>503</v>
       </c>
@@ -12558,7 +12565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A505">
         <v>504</v>
       </c>
@@ -12581,7 +12588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A506">
         <v>505</v>
       </c>
@@ -12604,7 +12611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A507">
         <v>506</v>
       </c>
@@ -12627,7 +12634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A508">
         <v>507</v>
       </c>
@@ -12650,7 +12657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A509">
         <v>508</v>
       </c>
@@ -12673,7 +12680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A510">
         <v>509</v>
       </c>
@@ -12696,7 +12703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A511">
         <v>510</v>
       </c>
@@ -12719,7 +12726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A512">
         <v>511</v>
       </c>
@@ -12742,7 +12749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A513">
         <v>512</v>
       </c>
@@ -12765,7 +12772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A514">
         <v>513</v>
       </c>
@@ -12788,7 +12795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A515">
         <v>514</v>
       </c>
@@ -12811,7 +12818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A516">
         <v>515</v>
       </c>
@@ -12834,7 +12841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A517">
         <v>516</v>
       </c>
@@ -12857,7 +12864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A518">
         <v>517</v>
       </c>
@@ -12880,7 +12887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A519">
         <v>518</v>
       </c>
@@ -12903,7 +12910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A520">
         <v>519</v>
       </c>
@@ -12926,7 +12933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A521">
         <v>520</v>
       </c>
@@ -12949,7 +12956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A522">
         <v>521</v>
       </c>
@@ -12972,7 +12979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A523">
         <v>522</v>
       </c>
@@ -12995,7 +13002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A524">
         <v>523</v>
       </c>
@@ -13018,7 +13025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A525">
         <v>524</v>
       </c>
@@ -13041,7 +13048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A526">
         <v>525</v>
       </c>
@@ -13064,7 +13071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A527">
         <v>526</v>
       </c>
@@ -13087,7 +13094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A528">
         <v>527</v>
       </c>
@@ -13110,7 +13117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A529">
         <v>528</v>
       </c>
@@ -13133,7 +13140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A530">
         <v>529</v>
       </c>
@@ -13156,7 +13163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A531">
         <v>530</v>
       </c>
@@ -13179,7 +13186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A532">
         <v>531</v>
       </c>
@@ -13202,7 +13209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A533">
         <v>532</v>
       </c>
@@ -13225,7 +13232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A534">
         <v>533</v>
       </c>
@@ -13248,7 +13255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A535">
         <v>534</v>
       </c>
@@ -13271,7 +13278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A536">
         <v>535</v>
       </c>
@@ -13294,7 +13301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A537">
         <v>536</v>
       </c>
@@ -13317,7 +13324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A538">
         <v>537</v>
       </c>
@@ -13340,7 +13347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A539">
         <v>538</v>
       </c>
@@ -13363,7 +13370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A540">
         <v>539</v>
       </c>
@@ -13386,7 +13393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A541">
         <v>540</v>
       </c>
@@ -13409,7 +13416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A542">
         <v>541</v>
       </c>
@@ -13432,7 +13439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A543">
         <v>542</v>
       </c>
@@ -13455,7 +13462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A544">
         <v>543</v>
       </c>
@@ -13478,7 +13485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A545">
         <v>544</v>
       </c>
@@ -13501,7 +13508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A546">
         <v>545</v>
       </c>
@@ -13524,7 +13531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A547">
         <v>546</v>
       </c>
@@ -13547,7 +13554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A548">
         <v>547</v>
       </c>
@@ -13570,7 +13577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A549">
         <v>548</v>
       </c>
@@ -13593,7 +13600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A550">
         <v>549</v>
       </c>
@@ -13616,7 +13623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A551">
         <v>550</v>
       </c>
@@ -13639,7 +13646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A552">
         <v>551</v>
       </c>
@@ -13662,7 +13669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A553">
         <v>552</v>
       </c>
@@ -13685,7 +13692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A554">
         <v>553</v>
       </c>
@@ -13708,7 +13715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A555">
         <v>554</v>
       </c>
@@ -13731,7 +13738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A556">
         <v>555</v>
       </c>
@@ -13754,7 +13761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A557">
         <v>556</v>
       </c>
@@ -13777,7 +13784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A558">
         <v>557</v>
       </c>
@@ -13800,7 +13807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A559">
         <v>558</v>
       </c>
@@ -13823,7 +13830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A560">
         <v>559</v>
       </c>
@@ -13846,7 +13853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A561">
         <v>560</v>
       </c>
@@ -13869,7 +13876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A562">
         <v>561</v>
       </c>
@@ -13892,7 +13899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A563">
         <v>562</v>
       </c>
@@ -13915,7 +13922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A564">
         <v>563</v>
       </c>
@@ -13938,7 +13945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A565">
         <v>564</v>
       </c>
@@ -13961,7 +13968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A566">
         <v>565</v>
       </c>
@@ -13984,7 +13991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A567">
         <v>566</v>
       </c>
@@ -14007,7 +14014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A568">
         <v>567</v>
       </c>
@@ -14030,7 +14037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A569">
         <v>568</v>
       </c>
@@ -14053,7 +14060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A570">
         <v>569</v>
       </c>
@@ -14076,7 +14083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A571">
         <v>570</v>
       </c>
@@ -14099,7 +14106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A572">
         <v>571</v>
       </c>
@@ -14122,7 +14129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A573">
         <v>572</v>
       </c>
@@ -14145,7 +14152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A574">
         <v>573</v>
       </c>
@@ -14168,7 +14175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A575">
         <v>574</v>
       </c>
@@ -14191,7 +14198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A576">
         <v>575</v>
       </c>
@@ -14214,7 +14221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A577">
         <v>576</v>
       </c>
@@ -14237,7 +14244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A578">
         <v>577</v>
       </c>
@@ -14260,7 +14267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A579">
         <v>578</v>
       </c>
@@ -14283,7 +14290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A580">
         <v>579</v>
       </c>
@@ -14306,7 +14313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A581">
         <v>580</v>
       </c>
@@ -14329,7 +14336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A582">
         <v>581</v>
       </c>
@@ -14352,7 +14359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A583">
         <v>582</v>
       </c>
@@ -14375,7 +14382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A584">
         <v>583</v>
       </c>
@@ -14398,7 +14405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A585">
         <v>584</v>
       </c>
@@ -14421,7 +14428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A586">
         <v>585</v>
       </c>
@@ -14444,7 +14451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A587">
         <v>586</v>
       </c>
@@ -14467,7 +14474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A588">
         <v>587</v>
       </c>
@@ -14490,7 +14497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A589">
         <v>588</v>
       </c>
@@ -14513,7 +14520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A590">
         <v>589</v>
       </c>
@@ -14536,7 +14543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A591">
         <v>590</v>
       </c>
@@ -14559,7 +14566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A592">
         <v>591</v>
       </c>
@@ -14582,7 +14589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A593">
         <v>592</v>
       </c>
@@ -14605,7 +14612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A594">
         <v>593</v>
       </c>
@@ -14628,7 +14635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A595">
         <v>594</v>
       </c>
@@ -14651,7 +14658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A596">
         <v>595</v>
       </c>
@@ -14674,7 +14681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A597">
         <v>596</v>
       </c>
@@ -14697,7 +14704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A598">
         <v>597</v>
       </c>
@@ -14720,7 +14727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A599">
         <v>598</v>
       </c>
@@ -14743,7 +14750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A600">
         <v>599</v>
       </c>
@@ -14766,7 +14773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A601">
         <v>600</v>
       </c>
@@ -14789,7 +14796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A602">
         <v>601</v>
       </c>
@@ -14812,7 +14819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A603">
         <v>602</v>
       </c>
@@ -14835,7 +14842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A604">
         <v>603</v>
       </c>
@@ -14858,7 +14865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A605">
         <v>604</v>
       </c>
@@ -14881,7 +14888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A606">
         <v>605</v>
       </c>
@@ -14904,7 +14911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A607">
         <v>606</v>
       </c>
@@ -14927,7 +14934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A608">
         <v>607</v>
       </c>
@@ -14950,7 +14957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A609">
         <v>608</v>
       </c>
@@ -14973,7 +14980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A610">
         <v>609</v>
       </c>
@@ -14996,7 +15003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A611">
         <v>610</v>
       </c>
@@ -15019,7 +15026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A612">
         <v>611</v>
       </c>
@@ -15042,7 +15049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A613">
         <v>612</v>
       </c>
@@ -15065,7 +15072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A614">
         <v>613</v>
       </c>
@@ -15088,7 +15095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A615">
         <v>614</v>
       </c>
@@ -15111,7 +15118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A616">
         <v>615</v>
       </c>
@@ -15134,7 +15141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A617">
         <v>616</v>
       </c>
@@ -15157,7 +15164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A618">
         <v>617</v>
       </c>
@@ -15180,7 +15187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A619">
         <v>618</v>
       </c>
@@ -15203,7 +15210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A620">
         <v>619</v>
       </c>
@@ -15226,7 +15233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A621">
         <v>620</v>
       </c>
@@ -15249,7 +15256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A622">
         <v>621</v>
       </c>
@@ -15272,7 +15279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A623">
         <v>622</v>
       </c>
@@ -15295,7 +15302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A624">
         <v>623</v>
       </c>
@@ -15318,7 +15325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A625">
         <v>624</v>
       </c>
@@ -15341,7 +15348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A626">
         <v>625</v>
       </c>
@@ -15364,7 +15371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A627">
         <v>626</v>
       </c>
@@ -15387,7 +15394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A628">
         <v>627</v>
       </c>
@@ -15410,7 +15417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A629">
         <v>628</v>
       </c>
@@ -15433,7 +15440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A630">
         <v>629</v>
       </c>
@@ -15456,7 +15463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A631">
         <v>630</v>
       </c>
@@ -15479,7 +15486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A632">
         <v>631</v>
       </c>
@@ -15502,7 +15509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A633">
         <v>632</v>
       </c>
@@ -15525,7 +15532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A634">
         <v>633</v>
       </c>
@@ -15548,7 +15555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A635">
         <v>634</v>
       </c>
@@ -15571,7 +15578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A636">
         <v>635</v>
       </c>
@@ -15594,7 +15601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A637">
         <v>636</v>
       </c>
@@ -15617,7 +15624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A638">
         <v>637</v>
       </c>
@@ -15640,7 +15647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A639">
         <v>638</v>
       </c>
@@ -15663,7 +15670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A640">
         <v>639</v>
       </c>
@@ -15686,7 +15693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A641">
         <v>640</v>
       </c>
@@ -15709,7 +15716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A642">
         <v>641</v>
       </c>
@@ -15732,7 +15739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A643">
         <v>642</v>
       </c>
@@ -15755,7 +15762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A644">
         <v>643</v>
       </c>
@@ -15778,7 +15785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A645">
         <v>644</v>
       </c>
@@ -15801,7 +15808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A646">
         <v>645</v>
       </c>
@@ -15824,7 +15831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A647">
         <v>646</v>
       </c>
@@ -15847,7 +15854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A648">
         <v>647</v>
       </c>
@@ -15870,7 +15877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A649">
         <v>648</v>
       </c>
@@ -15893,7 +15900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A650">
         <v>649</v>
       </c>
@@ -15916,7 +15923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A651">
         <v>650</v>
       </c>
@@ -15939,7 +15946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A652">
         <v>651</v>
       </c>
@@ -15962,7 +15969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A653">
         <v>652</v>
       </c>
@@ -15985,7 +15992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A654">
         <v>653</v>
       </c>
@@ -16008,7 +16015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A655">
         <v>654</v>
       </c>
@@ -16031,7 +16038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A656">
         <v>655</v>
       </c>
@@ -16054,7 +16061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A657">
         <v>656</v>
       </c>
@@ -16077,7 +16084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A658">
         <v>657</v>
       </c>
@@ -16100,7 +16107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A659">
         <v>658</v>
       </c>
@@ -16123,7 +16130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A660">
         <v>659</v>
       </c>
@@ -16146,7 +16153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A661">
         <v>660</v>
       </c>
@@ -16169,7 +16176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A662">
         <v>661</v>
       </c>
@@ -16192,7 +16199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A663">
         <v>662</v>
       </c>
@@ -16215,7 +16222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A664">
         <v>663</v>
       </c>
@@ -16238,7 +16245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A665">
         <v>664</v>
       </c>
@@ -16261,7 +16268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A666">
         <v>665</v>
       </c>
@@ -16284,7 +16291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A667">
         <v>666</v>
       </c>
@@ -16307,7 +16314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A668">
         <v>667</v>
       </c>
@@ -16330,7 +16337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A669">
         <v>668</v>
       </c>
@@ -16353,7 +16360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A670">
         <v>669</v>
       </c>
@@ -16376,7 +16383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A671">
         <v>670</v>
       </c>
@@ -16399,7 +16406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A672">
         <v>671</v>
       </c>
@@ -16422,7 +16429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A673">
         <v>672</v>
       </c>
@@ -16445,7 +16452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A674">
         <v>673</v>
       </c>
@@ -16468,7 +16475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A675">
         <v>674</v>
       </c>
@@ -16491,7 +16498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A676">
         <v>675</v>
       </c>
@@ -16514,7 +16521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A677">
         <v>676</v>
       </c>
@@ -16537,7 +16544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A678">
         <v>677</v>
       </c>
@@ -16560,7 +16567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A679">
         <v>678</v>
       </c>
@@ -16583,7 +16590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A680">
         <v>679</v>
       </c>
@@ -16606,7 +16613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A681">
         <v>680</v>
       </c>
@@ -16629,7 +16636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A682">
         <v>681</v>
       </c>
@@ -16652,7 +16659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A683">
         <v>682</v>
       </c>
@@ -16675,7 +16682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A684">
         <v>683</v>
       </c>
@@ -16698,7 +16705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A685">
         <v>684</v>
       </c>
@@ -16721,7 +16728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A686">
         <v>685</v>
       </c>
@@ -16744,7 +16751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A687">
         <v>686</v>
       </c>
@@ -16767,7 +16774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A688">
         <v>687</v>
       </c>
@@ -16790,7 +16797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A689">
         <v>688</v>
       </c>
@@ -16813,7 +16820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A690">
         <v>689</v>
       </c>
@@ -16836,7 +16843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A691">
         <v>690</v>
       </c>
@@ -16859,7 +16866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A692">
         <v>691</v>
       </c>
@@ -16882,7 +16889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A693">
         <v>692</v>
       </c>
@@ -16905,7 +16912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A694">
         <v>693</v>
       </c>
@@ -16928,7 +16935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A695">
         <v>694</v>
       </c>
@@ -16951,7 +16958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A696">
         <v>695</v>
       </c>
@@ -16974,7 +16981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A697">
         <v>696</v>
       </c>
@@ -16997,7 +17004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A698">
         <v>697</v>
       </c>
@@ -17020,7 +17027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A699">
         <v>698</v>
       </c>
@@ -17043,7 +17050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A700">
         <v>699</v>
       </c>
@@ -17066,7 +17073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A701">
         <v>700</v>
       </c>
@@ -17089,7 +17096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A702">
         <v>701</v>
       </c>
@@ -17112,7 +17119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A703">
         <v>702</v>
       </c>
@@ -17135,7 +17142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A704">
         <v>703</v>
       </c>
@@ -17158,7 +17165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A705">
         <v>704</v>
       </c>
@@ -17181,7 +17188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A706">
         <v>705</v>
       </c>
@@ -17204,7 +17211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A707">
         <v>706</v>
       </c>
@@ -17227,7 +17234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A708">
         <v>707</v>
       </c>
@@ -17250,7 +17257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A709">
         <v>708</v>
       </c>
@@ -17273,7 +17280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A710">
         <v>709</v>
       </c>
@@ -17296,7 +17303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A711">
         <v>710</v>
       </c>
@@ -17319,7 +17326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A712">
         <v>711</v>
       </c>
@@ -17342,7 +17349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A713">
         <v>712</v>
       </c>
@@ -17365,7 +17372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A714">
         <v>713</v>
       </c>
@@ -17388,7 +17395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A715">
         <v>714</v>
       </c>
@@ -17411,7 +17418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A716">
         <v>715</v>
       </c>
@@ -17434,7 +17441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A717">
         <v>716</v>
       </c>
@@ -17457,7 +17464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A718">
         <v>717</v>
       </c>
@@ -17480,7 +17487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A719">
         <v>718</v>
       </c>
@@ -17503,7 +17510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A720">
         <v>719</v>
       </c>
@@ -17526,7 +17533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A721">
         <v>720</v>
       </c>
@@ -17549,7 +17556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A722">
         <v>721</v>
       </c>
@@ -17572,7 +17579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A723">
         <v>722</v>
       </c>
@@ -17595,7 +17602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A724">
         <v>723</v>
       </c>
@@ -17618,7 +17625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A725">
         <v>724</v>
       </c>
@@ -17641,7 +17648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A726">
         <v>725</v>
       </c>
@@ -17664,7 +17671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A727">
         <v>726</v>
       </c>
@@ -17687,7 +17694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A728">
         <v>727</v>
       </c>
@@ -17710,7 +17717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A729">
         <v>728</v>
       </c>
@@ -17733,7 +17740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A730">
         <v>729</v>
       </c>
@@ -17756,7 +17763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A731">
         <v>730</v>
       </c>
@@ -17779,7 +17786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A732">
         <v>731</v>
       </c>
@@ -17802,7 +17809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A733">
         <v>732</v>
       </c>
@@ -17825,7 +17832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A734">
         <v>733</v>
       </c>
@@ -17848,7 +17855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A735">
         <v>734</v>
       </c>
@@ -17871,7 +17878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A736">
         <v>735</v>
       </c>
@@ -17894,7 +17901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A737">
         <v>736</v>
       </c>
@@ -17917,7 +17924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A738">
         <v>737</v>
       </c>
@@ -17940,7 +17947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A739">
         <v>738</v>
       </c>
@@ -17963,7 +17970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A740">
         <v>739</v>
       </c>
@@ -17986,7 +17993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A741">
         <v>740</v>
       </c>
@@ -18009,7 +18016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A742">
         <v>741</v>
       </c>
@@ -18032,7 +18039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A743">
         <v>742</v>
       </c>
@@ -18055,7 +18062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A744">
         <v>743</v>
       </c>
@@ -18078,7 +18085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A745">
         <v>744</v>
       </c>
@@ -18101,7 +18108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A746">
         <v>745</v>
       </c>
@@ -18124,7 +18131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A747">
         <v>746</v>
       </c>
@@ -18147,7 +18154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A748">
         <v>747</v>
       </c>
@@ -18170,7 +18177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A749">
         <v>748</v>
       </c>
@@ -18193,7 +18200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A750">
         <v>749</v>
       </c>
@@ -18216,7 +18223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A751">
         <v>750</v>
       </c>
@@ -18239,7 +18246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A752">
         <v>751</v>
       </c>
@@ -18262,7 +18269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A753">
         <v>752</v>
       </c>
@@ -18285,7 +18292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A754">
         <v>753</v>
       </c>
@@ -18308,7 +18315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A755">
         <v>754</v>
       </c>
@@ -18331,7 +18338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A756">
         <v>755</v>
       </c>
@@ -18354,7 +18361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A757">
         <v>756</v>
       </c>
@@ -18377,7 +18384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A758">
         <v>757</v>
       </c>
@@ -18400,7 +18407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A759">
         <v>758</v>
       </c>
@@ -18423,7 +18430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A760">
         <v>759</v>
       </c>
@@ -18446,7 +18453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A761">
         <v>760</v>
       </c>
@@ -18469,7 +18476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A762">
         <v>761</v>
       </c>
@@ -18492,7 +18499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A763">
         <v>762</v>
       </c>
@@ -18515,7 +18522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A764">
         <v>763</v>
       </c>
@@ -18538,7 +18545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A765">
         <v>764</v>
       </c>
@@ -18561,7 +18568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A766">
         <v>765</v>
       </c>
@@ -18584,7 +18591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A767">
         <v>766</v>
       </c>
@@ -18607,7 +18614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A768">
         <v>767</v>
       </c>
@@ -18630,7 +18637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A769">
         <v>768</v>
       </c>
@@ -18653,7 +18660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A770">
         <v>769</v>
       </c>
@@ -18676,7 +18683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A771">
         <v>770</v>
       </c>
@@ -18699,7 +18706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A772">
         <v>771</v>
       </c>
@@ -18722,7 +18729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A773">
         <v>772</v>
       </c>
@@ -18745,7 +18752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A774">
         <v>773</v>
       </c>
@@ -18768,7 +18775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A775">
         <v>774</v>
       </c>
@@ -18791,7 +18798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A776">
         <v>775</v>
       </c>
@@ -18814,7 +18821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A777">
         <v>776</v>
       </c>
@@ -18837,7 +18844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A778">
         <v>777</v>
       </c>
@@ -18860,7 +18867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A779">
         <v>778</v>
       </c>
@@ -18883,7 +18890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A780">
         <v>779</v>
       </c>
@@ -18906,7 +18913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A781">
         <v>780</v>
       </c>
@@ -18929,7 +18936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A782">
         <v>781</v>
       </c>
@@ -18952,7 +18959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A783">
         <v>782</v>
       </c>
@@ -18975,7 +18982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A784">
         <v>783</v>
       </c>
@@ -18998,7 +19005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A785">
         <v>784</v>
       </c>
@@ -19021,7 +19028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A786">
         <v>785</v>
       </c>
@@ -19044,7 +19051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A787">
         <v>786</v>
       </c>
@@ -19067,7 +19074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A788">
         <v>787</v>
       </c>
@@ -19090,7 +19097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A789">
         <v>788</v>
       </c>
@@ -19113,7 +19120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A790">
         <v>789</v>
       </c>
@@ -19136,7 +19143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A791">
         <v>790</v>
       </c>
@@ -19159,7 +19166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A792">
         <v>791</v>
       </c>
@@ -19182,7 +19189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A793">
         <v>792</v>
       </c>
@@ -19205,7 +19212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A794">
         <v>793</v>
       </c>
@@ -19228,7 +19235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A795">
         <v>794</v>
       </c>
@@ -19251,7 +19258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A796">
         <v>795</v>
       </c>
@@ -19274,7 +19281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A797">
         <v>796</v>
       </c>
@@ -19297,7 +19304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A798">
         <v>797</v>
       </c>
@@ -19320,7 +19327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A799">
         <v>798</v>
       </c>
@@ -19343,7 +19350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A800">
         <v>799</v>
       </c>
@@ -19366,7 +19373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A801">
         <v>800</v>
       </c>
@@ -19389,7 +19396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A802">
         <v>801</v>
       </c>
@@ -19412,7 +19419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A803">
         <v>802</v>
       </c>
@@ -19435,7 +19442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A804">
         <v>803</v>
       </c>
@@ -19458,7 +19465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A805">
         <v>804</v>
       </c>
@@ -19481,7 +19488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A806">
         <v>805</v>
       </c>
@@ -19504,7 +19511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A807">
         <v>806</v>
       </c>
@@ -19527,7 +19534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A808">
         <v>807</v>
       </c>
@@ -19550,7 +19557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A809">
         <v>808</v>
       </c>
@@ -19573,7 +19580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A810">
         <v>809</v>
       </c>
@@ -19596,7 +19603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A811">
         <v>810</v>
       </c>
@@ -19619,7 +19626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A812">
         <v>811</v>
       </c>
@@ -19642,7 +19649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A813">
         <v>812</v>
       </c>
@@ -19665,7 +19672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A814">
         <v>813</v>
       </c>
@@ -19688,7 +19695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A815">
         <v>814</v>
       </c>
@@ -19711,7 +19718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A816">
         <v>815</v>
       </c>
@@ -19734,7 +19741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A817">
         <v>816</v>
       </c>
@@ -19757,7 +19764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A818">
         <v>817</v>
       </c>
@@ -19780,7 +19787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A819">
         <v>818</v>
       </c>
@@ -19803,7 +19810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A820">
         <v>819</v>
       </c>
@@ -19826,7 +19833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A821">
         <v>820</v>
       </c>
@@ -19849,7 +19856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A822">
         <v>821</v>
       </c>
@@ -19872,7 +19879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A823">
         <v>822</v>
       </c>
@@ -19895,7 +19902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A824">
         <v>823</v>
       </c>
@@ -19918,7 +19925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A825">
         <v>824</v>
       </c>
@@ -19941,7 +19948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A826">
         <v>825</v>
       </c>
@@ -19964,7 +19971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A827">
         <v>826</v>
       </c>
@@ -19987,7 +19994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A828">
         <v>827</v>
       </c>
@@ -20010,7 +20017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A829">
         <v>828</v>
       </c>
@@ -20033,7 +20040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A830">
         <v>829</v>
       </c>
@@ -20056,7 +20063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A831">
         <v>830</v>
       </c>
@@ -20079,7 +20086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A832">
         <v>831</v>
       </c>
@@ -20102,7 +20109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A833">
         <v>832</v>
       </c>
@@ -20125,7 +20132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A834">
         <v>833</v>
       </c>
@@ -20148,7 +20155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A835">
         <v>834</v>
       </c>
@@ -20171,7 +20178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A836">
         <v>835</v>
       </c>
@@ -20194,7 +20201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A837">
         <v>836</v>
       </c>
@@ -20217,7 +20224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A838">
         <v>837</v>
       </c>
@@ -20240,7 +20247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A839">
         <v>838</v>
       </c>
@@ -20263,7 +20270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A840">
         <v>839</v>
       </c>
@@ -20286,7 +20293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A841">
         <v>840</v>
       </c>
@@ -20309,7 +20316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A842">
         <v>841</v>
       </c>
@@ -20332,7 +20339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A843">
         <v>842</v>
       </c>
@@ -20355,7 +20362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A844">
         <v>843</v>
       </c>
@@ -20378,7 +20385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A845">
         <v>844</v>
       </c>
@@ -20401,7 +20408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A846">
         <v>845</v>
       </c>
@@ -20424,7 +20431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A847">
         <v>846</v>
       </c>
@@ -20447,7 +20454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A848">
         <v>847</v>
       </c>
@@ -20470,7 +20477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A849">
         <v>848</v>
       </c>
@@ -20493,7 +20500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A850">
         <v>849</v>
       </c>
@@ -20516,7 +20523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A851">
         <v>850</v>
       </c>
@@ -20539,7 +20546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A852">
         <v>851</v>
       </c>
@@ -20562,7 +20569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A853">
         <v>852</v>
       </c>
@@ -20585,7 +20592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A854">
         <v>853</v>
       </c>
@@ -20608,7 +20615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A855">
         <v>854</v>
       </c>
@@ -20631,7 +20638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A856">
         <v>855</v>
       </c>
@@ -20654,7 +20661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A857">
         <v>856</v>
       </c>
@@ -20677,7 +20684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A858">
         <v>857</v>
       </c>
@@ -20700,7 +20707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A859">
         <v>858</v>
       </c>
@@ -20723,7 +20730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A860">
         <v>859</v>
       </c>
@@ -20746,7 +20753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A861">
         <v>860</v>
       </c>
@@ -20769,7 +20776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A862">
         <v>861</v>
       </c>
@@ -20792,7 +20799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A863">
         <v>862</v>
       </c>
@@ -20815,7 +20822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A864">
         <v>863</v>
       </c>
@@ -20838,7 +20845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A865">
         <v>864</v>
       </c>
@@ -20861,7 +20868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A866">
         <v>865</v>
       </c>
@@ -20884,7 +20891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A867">
         <v>866</v>
       </c>
@@ -20907,7 +20914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A868">
         <v>867</v>
       </c>
@@ -20930,7 +20937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A869">
         <v>868</v>
       </c>
@@ -20953,7 +20960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A870">
         <v>869</v>
       </c>
@@ -20976,7 +20983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A871">
         <v>870</v>
       </c>
@@ -20999,7 +21006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A872">
         <v>871</v>
       </c>
@@ -21022,7 +21029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A873">
         <v>872</v>
       </c>
@@ -21045,7 +21052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A874">
         <v>873</v>
       </c>
@@ -21068,7 +21075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A875">
         <v>874</v>
       </c>
@@ -21091,7 +21098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A876">
         <v>875</v>
       </c>
@@ -21114,7 +21121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A877">
         <v>876</v>
       </c>
@@ -21137,7 +21144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A878">
         <v>877</v>
       </c>
@@ -21160,7 +21167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A879">
         <v>878</v>
       </c>
@@ -21183,7 +21190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A880">
         <v>879</v>
       </c>
@@ -21206,7 +21213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A881">
         <v>880</v>
       </c>
@@ -21229,7 +21236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A882">
         <v>881</v>
       </c>
@@ -21252,7 +21259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A883">
         <v>882</v>
       </c>
@@ -21275,7 +21282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A884">
         <v>883</v>
       </c>
@@ -21298,7 +21305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A885">
         <v>884</v>
       </c>
@@ -21321,7 +21328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A886">
         <v>885</v>
       </c>
@@ -21344,7 +21351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A887">
         <v>886</v>
       </c>
@@ -21367,7 +21374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A888">
         <v>887</v>
       </c>
@@ -21390,7 +21397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A889">
         <v>888</v>
       </c>
@@ -21413,7 +21420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A890">
         <v>889</v>
       </c>
@@ -21436,7 +21443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A891">
         <v>890</v>
       </c>
@@ -21459,7 +21466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A892">
         <v>891</v>
       </c>
@@ -21482,7 +21489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A893">
         <v>892</v>
       </c>
@@ -21505,7 +21512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A894">
         <v>893</v>
       </c>
@@ -21528,7 +21535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A895">
         <v>894</v>
       </c>
@@ -21551,7 +21558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A896">
         <v>895</v>
       </c>
@@ -21574,7 +21581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A897">
         <v>896</v>
       </c>
@@ -21597,7 +21604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A898">
         <v>897</v>
       </c>
@@ -21620,7 +21627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A899">
         <v>898</v>
       </c>
@@ -21643,7 +21650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A900">
         <v>899</v>
       </c>
@@ -21666,7 +21673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A901">
         <v>900</v>
       </c>
@@ -21689,7 +21696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A902">
         <v>901</v>
       </c>
@@ -21712,7 +21719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A903">
         <v>902</v>
       </c>
@@ -21735,7 +21742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A904">
         <v>903</v>
       </c>
@@ -21758,7 +21765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A905">
         <v>904</v>
       </c>
@@ -21781,7 +21788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A906">
         <v>905</v>
       </c>
@@ -21804,7 +21811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A907">
         <v>906</v>
       </c>
@@ -21827,7 +21834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A908">
         <v>907</v>
       </c>
@@ -21850,7 +21857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A909">
         <v>908</v>
       </c>
@@ -21873,7 +21880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A910">
         <v>909</v>
       </c>
@@ -21896,7 +21903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A911">
         <v>910</v>
       </c>
@@ -21919,7 +21926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A912">
         <v>911</v>
       </c>
@@ -21942,7 +21949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A913">
         <v>912</v>
       </c>
@@ -21965,7 +21972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A914">
         <v>913</v>
       </c>
@@ -21988,7 +21995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A915">
         <v>914</v>
       </c>
@@ -22011,7 +22018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A916">
         <v>915</v>
       </c>
@@ -22034,7 +22041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A917">
         <v>916</v>
       </c>
@@ -22057,7 +22064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A918">
         <v>917</v>
       </c>
@@ -22080,7 +22087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A919">
         <v>918</v>
       </c>
@@ -22103,7 +22110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A920">
         <v>919</v>
       </c>
@@ -22126,7 +22133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A921">
         <v>920</v>
       </c>
@@ -22149,7 +22156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A922">
         <v>921</v>
       </c>
@@ -22172,7 +22179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A923">
         <v>922</v>
       </c>
@@ -22195,7 +22202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A924">
         <v>923</v>
       </c>
@@ -22218,7 +22225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A925">
         <v>924</v>
       </c>
@@ -22241,7 +22248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A926">
         <v>925</v>
       </c>
@@ -22264,7 +22271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A927">
         <v>926</v>
       </c>
@@ -22287,7 +22294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A928">
         <v>927</v>
       </c>
@@ -22310,7 +22317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A929">
         <v>928</v>
       </c>
@@ -22333,7 +22340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A930">
         <v>929</v>
       </c>
@@ -22356,7 +22363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A931">
         <v>930</v>
       </c>
@@ -22379,7 +22386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A932">
         <v>931</v>
       </c>
@@ -22402,7 +22409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A933">
         <v>932</v>
       </c>
@@ -22425,7 +22432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A934">
         <v>933</v>
       </c>
@@ -22448,7 +22455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A935">
         <v>934</v>
       </c>
@@ -22471,7 +22478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A936">
         <v>935</v>
       </c>
@@ -22494,7 +22501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A937">
         <v>936</v>
       </c>
@@ -22517,7 +22524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A938">
         <v>937</v>
       </c>
@@ -22540,7 +22547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A939">
         <v>938</v>
       </c>
@@ -22563,7 +22570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A940">
         <v>939</v>
       </c>
@@ -22586,7 +22593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A941">
         <v>940</v>
       </c>
@@ -22609,7 +22616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A942">
         <v>941</v>
       </c>
@@ -22632,7 +22639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A943">
         <v>942</v>
       </c>
@@ -22655,7 +22662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A944">
         <v>943</v>
       </c>
@@ -22678,7 +22685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A945">
         <v>944</v>
       </c>
@@ -22701,7 +22708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A946">
         <v>945</v>
       </c>
@@ -22724,7 +22731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A947">
         <v>946</v>
       </c>
@@ -22747,7 +22754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A948">
         <v>947</v>
       </c>
@@ -22770,7 +22777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A949">
         <v>948</v>
       </c>
@@ -22793,7 +22800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A950">
         <v>949</v>
       </c>
@@ -22816,7 +22823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A951">
         <v>950</v>
       </c>
@@ -22839,7 +22846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A952">
         <v>951</v>
       </c>
@@ -22862,7 +22869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A953">
         <v>952</v>
       </c>
@@ -22885,7 +22892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A954">
         <v>953</v>
       </c>
@@ -22908,7 +22915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A955">
         <v>954</v>
       </c>
@@ -22931,7 +22938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A956">
         <v>955</v>
       </c>
@@ -22954,7 +22961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A957">
         <v>956</v>
       </c>
@@ -22977,7 +22984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A958">
         <v>957</v>
       </c>
@@ -23000,7 +23007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A959">
         <v>958</v>
       </c>
@@ -23023,7 +23030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A960">
         <v>959</v>
       </c>
@@ -23046,7 +23053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="961" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A961">
         <v>960</v>
       </c>
@@ -23069,7 +23076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="962" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A962">
         <v>961</v>
       </c>
@@ -23092,7 +23099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="963" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A963">
         <v>962</v>
       </c>
@@ -23115,7 +23122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="964" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A964">
         <v>963</v>
       </c>
@@ -23138,7 +23145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A965">
         <v>964</v>
       </c>
@@ -23161,7 +23168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="966" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A966">
         <v>965</v>
       </c>
@@ -23184,7 +23191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="967" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A967">
         <v>966</v>
       </c>
@@ -23207,7 +23214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="968" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A968">
         <v>967</v>
       </c>
@@ -23230,7 +23237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="969" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A969">
         <v>968</v>
       </c>
@@ -23253,7 +23260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="970" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A970">
         <v>969</v>
       </c>
@@ -23276,7 +23283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="971" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="971" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A971">
         <v>970</v>
       </c>
@@ -23299,7 +23306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="972" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A972">
         <v>971</v>
       </c>
@@ -23322,7 +23329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="973" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A973">
         <v>972</v>
       </c>
@@ -23345,7 +23352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="974" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A974">
         <v>973</v>
       </c>
@@ -23368,7 +23375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="975" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A975">
         <v>974</v>
       </c>
@@ -23391,7 +23398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="976" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="976" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A976">
         <v>975</v>
       </c>
@@ -23414,7 +23421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="977" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="977" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A977">
         <v>976</v>
       </c>
@@ -23437,7 +23444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="978" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A978">
         <v>977</v>
       </c>
@@ -23460,7 +23467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="979" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A979">
         <v>978</v>
       </c>
@@ -23483,7 +23490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="980" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A980">
         <v>979</v>
       </c>
@@ -23506,7 +23513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="981" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="981" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A981">
         <v>980</v>
       </c>
@@ -23529,7 +23536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="982" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="982" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A982">
         <v>981</v>
       </c>
@@ -23552,7 +23559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="983" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A983">
         <v>982</v>
       </c>
@@ -23575,7 +23582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="984" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A984">
         <v>983</v>
       </c>
@@ -23598,7 +23605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="985" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A985">
         <v>984</v>
       </c>
@@ -23621,7 +23628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="986" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="986" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A986">
         <v>985</v>
       </c>
@@ -23644,7 +23651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="987" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A987">
         <v>986</v>
       </c>
@@ -23667,7 +23674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="988" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="988" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A988">
         <v>987</v>
       </c>
@@ -23690,7 +23697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="989" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="989" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A989">
         <v>988</v>
       </c>
@@ -23713,7 +23720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="990" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="990" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A990">
         <v>989</v>
       </c>
@@ -23736,7 +23743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="991" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="991" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A991">
         <v>990</v>
       </c>
@@ -23759,7 +23766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="992" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="992" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A992">
         <v>991</v>
       </c>
@@ -23782,7 +23789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="993" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A993">
         <v>992</v>
       </c>
@@ -23805,7 +23812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="994" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A994">
         <v>993</v>
       </c>
@@ -23828,7 +23835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="995" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A995">
         <v>994</v>
       </c>
@@ -23851,7 +23858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="996" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A996">
         <v>995</v>
       </c>
@@ -23874,7 +23881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="997" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A997">
         <v>996</v>
       </c>
@@ -23897,7 +23904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="998" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A998">
         <v>997</v>
       </c>
@@ -23920,7 +23927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="999" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A999">
         <v>998</v>
       </c>
@@ -23943,7 +23950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1000">
         <v>999</v>
       </c>
@@ -23966,7 +23973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1001">
         <v>1000</v>
       </c>
